--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Febrero.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Febrero.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -261,7 +261,7 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -281,17 +281,17 @@
         </is>
       </c>
       <c r="B8" s="65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">No Da Curso A La Solicitud</t>
+          <t xml:space="preserve">Retiro</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
